--- a/data/output/FV2410_FV2404/UTILMD/55106.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55106.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5160" uniqueCount="416">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5181" uniqueCount="416">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1373,6 +1373,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U227" totalsRowShown="0">
+  <autoFilter ref="A1:U227"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1662,7 +1692,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12730,5 +12763,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55106.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55106.xlsx
@@ -2452,7 +2452,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4774,7 +4774,7 @@
         <v>389</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4994,7 +4994,7 @@
         <v>390</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5214,7 +5214,7 @@
         <v>391</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5434,7 +5434,7 @@
         <v>391</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5654,7 +5654,7 @@
         <v>392</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5874,7 +5874,7 @@
         <v>393</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -6036,7 +6036,7 @@
         <v>391</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6252,7 +6252,7 @@
         <v>394</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -6456,7 +6456,7 @@
         <v>393</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6660,7 +6660,7 @@
         <v>397</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6862,7 +6862,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -7064,7 +7064,7 @@
         <v>398</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -7212,7 +7212,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -7372,7 +7372,7 @@
         <v>399</v>
       </c>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -7858,7 +7858,7 @@
         <v>403</v>
       </c>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -8118,7 +8118,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -8320,7 +8320,7 @@
         <v>405</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8468,7 +8468,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -8626,7 +8626,7 @@
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -8824,7 +8824,7 @@
         <v>393</v>
       </c>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -9126,7 +9126,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -9380,7 +9380,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -9582,7 +9582,7 @@
         <v>407</v>
       </c>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -9794,7 +9794,7 @@
         <v>408</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9992,7 +9992,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -10152,7 +10152,7 @@
         <v>409</v>
       </c>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -10414,7 +10414,7 @@
         <v>411</v>
       </c>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10562,7 +10562,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -10716,7 +10716,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -10972,7 +10972,7 @@
         <v>412</v>
       </c>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -11120,7 +11120,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -11278,7 +11278,7 @@
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -11580,7 +11580,7 @@
         <v>413</v>
       </c>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -11728,7 +11728,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -11886,7 +11886,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -12128,7 +12128,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -12482,7 +12482,7 @@
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -12904,7 +12904,7 @@
         <v>415</v>
       </c>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -13052,7 +13052,7 @@
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -13210,7 +13210,7 @@
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -13454,7 +13454,7 @@
         <v>416</v>
       </c>
       <c r="L215" s="4"/>
-      <c r="M215" s="2" t="s">
+      <c r="M215" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N215" s="2" t="s">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="K221" s="2"/>
       <c r="L221" s="4"/>
-      <c r="M221" s="2" t="s">
+      <c r="M221" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N221" s="2" t="s">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="K225" s="2"/>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N225" s="2"/>
